--- a/biology/Zoologie/Drymarchon_melanurus/Drymarchon_melanurus.xlsx
+++ b/biology/Zoologie/Drymarchon_melanurus/Drymarchon_melanurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drymarchon melanurus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drymarchon melanurus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] au Texas aux États-Unis, au Mexique, en Amérique centrale, en Colombie, en Équateur, au Pérou et dans le nord du Venezuela.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Texas aux États-Unis, au Mexique, en Amérique centrale, en Colombie, en Équateur, au Pérou et dans le nord du Venezuela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 mai 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 mai 2015) :
 Drymarchon melanurus erebennus (Cope, 1860)
 Drymarchon melanurus melanurus (Duméril, Bibron &amp; Duméril, 1854)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Drymarchon melanurus mesure entre 180 et 240 cm. Son dos est brun-olive brillant qui vire au noir vers la queue. Sa face ventrale est jaune-olive clair ou crème.
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1861 "1860" : Notes and descriptions of new and little-known species of American reptiles. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 339-345 (texte intégral).
 Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Première partie, p. 1-780 (texte intégral).</t>
